--- a/biology/Médecine/Sugita_Genpaku/Sugita_Genpaku.xlsx
+++ b/biology/Médecine/Sugita_Genpaku/Sugita_Genpaku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sugita Genpaku (杉田玄白?), 20 octobre 1733 - 1er juin 1817, est un érudit japonais connu pour sa traduction du Kaitai Shinsho (nouveau traité d'anatomie).
 Hormis le Kaitai Shinsho, il est également l'auteur du Rangaku Kotohajime (« début des études hollandaises »).
